--- a/Code/Results/Cases/Case_3_78/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_78/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005438898910362</v>
+        <v>1.054745150301199</v>
       </c>
       <c r="D2">
-        <v>1.028882966353359</v>
+        <v>1.060038307084648</v>
       </c>
       <c r="E2">
-        <v>1.008686729446791</v>
+        <v>1.051017841050022</v>
       </c>
       <c r="F2">
-        <v>1.03528417717333</v>
+        <v>1.069763675009067</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05255920528327</v>
+        <v>1.046848962490686</v>
       </c>
       <c r="J2">
-        <v>1.027458141540676</v>
+        <v>1.059755638480245</v>
       </c>
       <c r="K2">
-        <v>1.039954062581907</v>
+        <v>1.062766175295604</v>
       </c>
       <c r="L2">
-        <v>1.02002635648925</v>
+        <v>1.053770508784097</v>
       </c>
       <c r="M2">
-        <v>1.046272895425513</v>
+        <v>1.07246531259788</v>
       </c>
       <c r="N2">
-        <v>1.02891724995276</v>
+        <v>1.061260613042558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014753562309122</v>
+        <v>1.056480951296423</v>
       </c>
       <c r="D3">
-        <v>1.036270675609022</v>
+        <v>1.061415257188752</v>
       </c>
       <c r="E3">
-        <v>1.016772440793764</v>
+        <v>1.05254222078431</v>
       </c>
       <c r="F3">
-        <v>1.043153732259375</v>
+        <v>1.071261835915073</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056011784614372</v>
+        <v>1.047362801924152</v>
       </c>
       <c r="J3">
-        <v>1.034849953881052</v>
+        <v>1.061139039670446</v>
       </c>
       <c r="K3">
-        <v>1.046459582779651</v>
+        <v>1.063956051346688</v>
       </c>
       <c r="L3">
-        <v>1.027195120364316</v>
+        <v>1.055105619597533</v>
       </c>
       <c r="M3">
-        <v>1.053262694240834</v>
+        <v>1.073778017217178</v>
       </c>
       <c r="N3">
-        <v>1.036319559514512</v>
+        <v>1.062645978821127</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020558947680774</v>
+        <v>1.057601026073847</v>
       </c>
       <c r="D4">
-        <v>1.040878794345292</v>
+        <v>1.062303520508216</v>
       </c>
       <c r="E4">
-        <v>1.021812341353229</v>
+        <v>1.05352537210779</v>
       </c>
       <c r="F4">
-        <v>1.048067429760022</v>
+        <v>1.072228848981741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058148562099973</v>
+        <v>1.047692452129098</v>
       </c>
       <c r="J4">
-        <v>1.03945098336058</v>
+        <v>1.062030787836578</v>
       </c>
       <c r="K4">
-        <v>1.050507665676844</v>
+        <v>1.064722736993398</v>
       </c>
       <c r="L4">
-        <v>1.031654449702844</v>
+        <v>1.055965810146917</v>
       </c>
       <c r="M4">
-        <v>1.057618373563433</v>
+        <v>1.074624519816927</v>
       </c>
       <c r="N4">
-        <v>1.040927122983646</v>
+        <v>1.06353899337194</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022950101186797</v>
+        <v>1.058071177802028</v>
       </c>
       <c r="D5">
-        <v>1.042777539888825</v>
+        <v>1.062676307395924</v>
       </c>
       <c r="E5">
-        <v>1.023888214801468</v>
+        <v>1.053937930607902</v>
       </c>
       <c r="F5">
-        <v>1.050093273495744</v>
+        <v>1.072634818871317</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059024971830149</v>
+        <v>1.047830362737364</v>
       </c>
       <c r="J5">
-        <v>1.041344575860994</v>
+        <v>1.06240487612436</v>
       </c>
       <c r="K5">
-        <v>1.052173338168976</v>
+        <v>1.065044285501689</v>
       </c>
       <c r="L5">
-        <v>1.033489038502162</v>
+        <v>1.056326557430874</v>
       </c>
       <c r="M5">
-        <v>1.0594120880992</v>
+        <v>1.07497970477937</v>
       </c>
       <c r="N5">
-        <v>1.04282340460261</v>
+        <v>1.063913612907999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02334878727522</v>
+        <v>1.058150076121273</v>
       </c>
       <c r="D6">
-        <v>1.043094163361568</v>
+        <v>1.062738862802626</v>
       </c>
       <c r="E6">
-        <v>1.024234331060376</v>
+        <v>1.054007156919924</v>
       </c>
       <c r="F6">
-        <v>1.050431160392434</v>
+        <v>1.072702950354473</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0591708789888</v>
+        <v>1.047853479140419</v>
       </c>
       <c r="J6">
-        <v>1.041660210999242</v>
+        <v>1.062467640487738</v>
       </c>
       <c r="K6">
-        <v>1.052450960423569</v>
+        <v>1.065098230285188</v>
       </c>
       <c r="L6">
-        <v>1.033794798245112</v>
+        <v>1.056387077435534</v>
       </c>
       <c r="M6">
-        <v>1.059711137577789</v>
+        <v>1.075039302054882</v>
       </c>
       <c r="N6">
-        <v>1.043139487978957</v>
+        <v>1.063976466403972</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020591088055732</v>
+        <v>1.057607311102417</v>
       </c>
       <c r="D7">
-        <v>1.040904313398815</v>
+        <v>1.062308504200508</v>
       </c>
       <c r="E7">
-        <v>1.021840244009119</v>
+        <v>1.053530887695718</v>
       </c>
       <c r="F7">
-        <v>1.048094652328925</v>
+        <v>1.072234275765326</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058160357013131</v>
+        <v>1.047694297539984</v>
       </c>
       <c r="J7">
-        <v>1.039476441899194</v>
+        <v>1.062035789559289</v>
       </c>
       <c r="K7">
-        <v>1.050530061373638</v>
+        <v>1.064727036536394</v>
       </c>
       <c r="L7">
-        <v>1.031679117679467</v>
+        <v>1.055970633897765</v>
       </c>
       <c r="M7">
-        <v>1.057642485024673</v>
+        <v>1.074629268491525</v>
       </c>
       <c r="N7">
-        <v>1.040952617676305</v>
+        <v>1.063544002197671</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008635107007537</v>
+        <v>1.055332424573299</v>
       </c>
       <c r="D8">
-        <v>1.031417072075975</v>
+        <v>1.060504222774404</v>
       </c>
       <c r="E8">
-        <v>1.011461075542088</v>
+        <v>1.051533688143244</v>
       </c>
       <c r="F8">
-        <v>1.037982485773154</v>
+        <v>1.070270488812621</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053747050815287</v>
+        <v>1.047023207730294</v>
       </c>
       <c r="J8">
-        <v>1.029995754380546</v>
+        <v>1.060223877956374</v>
       </c>
       <c r="K8">
-        <v>1.042187652888365</v>
+        <v>1.063168977411418</v>
       </c>
       <c r="L8">
-        <v>1.022488005408558</v>
+        <v>1.054222492688323</v>
       </c>
       <c r="M8">
-        <v>1.04867141220711</v>
+        <v>1.072909555283214</v>
       </c>
       <c r="N8">
-        <v>1.031458466493931</v>
+        <v>1.061729517472451</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9856783677827149</v>
+        <v>1.051299307037036</v>
       </c>
       <c r="D9">
-        <v>1.013240026520149</v>
+        <v>1.057303551201375</v>
       </c>
       <c r="E9">
-        <v>0.991541257998852</v>
+        <v>1.047989060631399</v>
       </c>
       <c r="F9">
-        <v>1.018650639641193</v>
+        <v>1.066791166769652</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045153323177864</v>
+        <v>1.045818691344029</v>
       </c>
       <c r="J9">
-        <v>1.011747197600045</v>
+        <v>1.057004416891532</v>
       </c>
       <c r="K9">
-        <v>1.026121884686881</v>
+        <v>1.060398165033794</v>
       </c>
       <c r="L9">
-        <v>1.004773079584456</v>
+        <v>1.051113018234491</v>
       </c>
       <c r="M9">
-        <v>1.031448200683789</v>
+        <v>1.069856466467243</v>
       </c>
       <c r="N9">
-        <v>1.013183994669663</v>
+        <v>1.058505484403619</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9687899967371864</v>
+        <v>1.04859312222012</v>
       </c>
       <c r="D10">
-        <v>0.9999096505623143</v>
+        <v>1.055154747669073</v>
       </c>
       <c r="E10">
-        <v>0.9769026449420423</v>
+        <v>1.04560810035456</v>
       </c>
       <c r="F10">
-        <v>1.004504514329104</v>
+        <v>1.064458196013568</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038756367361771</v>
+        <v>1.04500058079728</v>
       </c>
       <c r="J10">
-        <v>0.998299045176249</v>
+        <v>1.054839404854404</v>
       </c>
       <c r="K10">
-        <v>1.014280536487657</v>
+        <v>1.058533276157747</v>
       </c>
       <c r="L10">
-        <v>0.9917018392414912</v>
+        <v>1.04901971793479</v>
       </c>
       <c r="M10">
-        <v>1.018792911894375</v>
+        <v>1.067805105907259</v>
       </c>
       <c r="N10">
-        <v>0.9997167443268999</v>
+        <v>1.056337397801068</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9610130127842987</v>
+        <v>1.047416957839678</v>
       </c>
       <c r="D11">
-        <v>0.9937850748583049</v>
+        <v>1.054220571063186</v>
       </c>
       <c r="E11">
-        <v>0.9701679806279583</v>
+        <v>1.044572685868584</v>
       </c>
       <c r="F11">
-        <v>0.9980131191570173</v>
+        <v>1.063444646496548</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035794778092283</v>
+        <v>1.044642674707984</v>
       </c>
       <c r="J11">
-        <v>0.9921027108415411</v>
+        <v>1.053897316680274</v>
       </c>
       <c r="K11">
-        <v>1.008825155068382</v>
+        <v>1.057721416669485</v>
       </c>
       <c r="L11">
-        <v>0.9856753004769295</v>
+        <v>1.048108297299688</v>
       </c>
       <c r="M11">
-        <v>1.012972602664247</v>
+        <v>1.06691290355878</v>
       </c>
       <c r="N11">
-        <v>0.9935116104867074</v>
+        <v>1.055393971753672</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.95804522345024</v>
+        <v>1.04697940264444</v>
       </c>
       <c r="D12">
-        <v>0.9914503763053406</v>
+        <v>1.053873002100352</v>
       </c>
       <c r="E12">
-        <v>0.9675991741417241</v>
+        <v>1.044187402620274</v>
       </c>
       <c r="F12">
-        <v>0.9955398450929259</v>
+        <v>1.063067650387324</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034662425079489</v>
+        <v>1.044509176312132</v>
       </c>
       <c r="J12">
-        <v>0.9897377930229257</v>
+        <v>1.053546673121241</v>
       </c>
       <c r="K12">
-        <v>1.006743227336576</v>
+        <v>1.05741918942305</v>
       </c>
       <c r="L12">
-        <v>0.9833746110819825</v>
+        <v>1.047768987159557</v>
       </c>
       <c r="M12">
-        <v>1.010752996410613</v>
+        <v>1.066580893171269</v>
       </c>
       <c r="N12">
-        <v>0.9911433342135298</v>
+        <v>1.055042830240565</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9586855722787796</v>
+        <v>1.047073290589653</v>
       </c>
       <c r="D13">
-        <v>0.9919540049226028</v>
+        <v>1.053947583027389</v>
       </c>
       <c r="E13">
-        <v>0.9681533759957911</v>
+        <v>1.044270078416862</v>
       </c>
       <c r="F13">
-        <v>0.996073308763507</v>
+        <v>1.063148541034485</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034906843090405</v>
+        <v>1.044537837441937</v>
       </c>
       <c r="J13">
-        <v>0.990248073307729</v>
+        <v>1.053621919736206</v>
       </c>
       <c r="K13">
-        <v>1.007192435986323</v>
+        <v>1.057484048561971</v>
       </c>
       <c r="L13">
-        <v>0.9838710586123743</v>
+        <v>1.047841805339026</v>
       </c>
       <c r="M13">
-        <v>1.011231838403793</v>
+        <v>1.066652138196813</v>
       </c>
       <c r="N13">
-        <v>0.9916543391548676</v>
+        <v>1.055118183714355</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9607693678885716</v>
+        <v>1.047380803279252</v>
       </c>
       <c r="D14">
-        <v>0.99359335104425</v>
+        <v>1.054191852697261</v>
       </c>
       <c r="E14">
-        <v>0.9699570643674108</v>
+        <v>1.04454085228999</v>
       </c>
       <c r="F14">
-        <v>0.9978099898215024</v>
+        <v>1.063413494544569</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03570185866163</v>
+        <v>1.044631651071553</v>
       </c>
       <c r="J14">
-        <v>0.99190856473855</v>
+        <v>1.053868346949206</v>
       </c>
       <c r="K14">
-        <v>1.008654236221532</v>
+        <v>1.057696448142295</v>
       </c>
       <c r="L14">
-        <v>0.9854864387728499</v>
+        <v>1.048080265574027</v>
       </c>
       <c r="M14">
-        <v>1.012790348295885</v>
+        <v>1.066885471930881</v>
       </c>
       <c r="N14">
-        <v>0.9933171886739813</v>
+        <v>1.055364960882263</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9620424754946545</v>
+        <v>1.047570181928714</v>
       </c>
       <c r="D15">
-        <v>0.9945952619334703</v>
+        <v>1.054342278805641</v>
       </c>
       <c r="E15">
-        <v>0.9710592075895292</v>
+        <v>1.044707593843001</v>
       </c>
       <c r="F15">
-        <v>0.998871555016163</v>
+        <v>1.063576671986793</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03618729990833</v>
+        <v>1.044689378857138</v>
       </c>
       <c r="J15">
-        <v>0.9929230166020824</v>
+        <v>1.054020084333661</v>
       </c>
       <c r="K15">
-        <v>1.009547329623935</v>
+        <v>1.057827225829482</v>
       </c>
       <c r="L15">
-        <v>0.986473255297325</v>
+        <v>1.048227086567202</v>
       </c>
       <c r="M15">
-        <v>1.013742737427896</v>
+        <v>1.067029155749373</v>
       </c>
       <c r="N15">
-        <v>0.9943330811755192</v>
+        <v>1.055516913751208</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9692955928304861</v>
+        <v>1.048671086715571</v>
       </c>
       <c r="D16">
-        <v>1.00030814048319</v>
+        <v>1.055216666129891</v>
       </c>
       <c r="E16">
-        <v>0.9773406293039997</v>
+        <v>1.045676722374558</v>
       </c>
       <c r="F16">
-        <v>1.004927039618985</v>
+        <v>1.06452539000239</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03894859675884</v>
+        <v>1.045024256210511</v>
       </c>
       <c r="J16">
-        <v>0.9987018241183379</v>
+        <v>1.054901829417153</v>
       </c>
       <c r="K16">
-        <v>1.014635172193588</v>
+        <v>1.058587063844789</v>
       </c>
       <c r="L16">
-        <v>0.9920935018741895</v>
+        <v>1.049080099087244</v>
       </c>
       <c r="M16">
-        <v>1.019171483030894</v>
+        <v>1.067864234090614</v>
       </c>
       <c r="N16">
-        <v>1.000120095261287</v>
+        <v>1.056399911013857</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9737149501381379</v>
+        <v>1.049360472247215</v>
       </c>
       <c r="D17">
-        <v>1.003792898724845</v>
+        <v>1.055764137809398</v>
       </c>
       <c r="E17">
-        <v>0.9811697336957163</v>
+        <v>1.046283429858841</v>
       </c>
       <c r="F17">
-        <v>1.008622882935348</v>
+        <v>1.065119586788771</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040627103131973</v>
+        <v>1.045233331833837</v>
       </c>
       <c r="J17">
-        <v>1.002222093014045</v>
+        <v>1.05545367610174</v>
       </c>
       <c r="K17">
-        <v>1.017734749918857</v>
+        <v>1.059062516399995</v>
       </c>
       <c r="L17">
-        <v>0.9955161826477413</v>
+        <v>1.049613819640212</v>
       </c>
       <c r="M17">
-        <v>1.022481392316544</v>
+        <v>1.068386989879309</v>
       </c>
       <c r="N17">
-        <v>1.003645363342605</v>
+        <v>1.056952541384033</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9762486122576083</v>
+        <v>1.0497621589662</v>
       </c>
       <c r="D18">
-        <v>1.005792015267002</v>
+        <v>1.05608310977367</v>
       </c>
       <c r="E18">
-        <v>0.9833655657969801</v>
+        <v>1.046636884524872</v>
       </c>
       <c r="F18">
-        <v>1.010743831398226</v>
+        <v>1.065465848713343</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041587921644336</v>
+        <v>1.045354929523637</v>
       </c>
       <c r="J18">
-        <v>1.004239953770344</v>
+        <v>1.05577511386888</v>
       </c>
       <c r="K18">
-        <v>1.019511514371342</v>
+        <v>1.05933942097028</v>
       </c>
       <c r="L18">
-        <v>0.9974777447096079</v>
+        <v>1.049924647690451</v>
       </c>
       <c r="M18">
-        <v>1.024379653986326</v>
+        <v>1.06869152430657</v>
       </c>
       <c r="N18">
-        <v>1.00566608969263</v>
+        <v>1.057274435629672</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9771053050643034</v>
+        <v>1.04989905305727</v>
       </c>
       <c r="D19">
-        <v>1.006468169551246</v>
+        <v>1.056191810489486</v>
       </c>
       <c r="E19">
-        <v>0.9841081192143906</v>
+        <v>1.046757331415234</v>
       </c>
       <c r="F19">
-        <v>1.01146131607412</v>
+        <v>1.065583860721234</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041912540232743</v>
+        <v>1.045396331582719</v>
       </c>
       <c r="J19">
-        <v>1.00492217751491</v>
+        <v>1.055884640813075</v>
       </c>
       <c r="K19">
-        <v>1.020112230761533</v>
+        <v>1.059433767614668</v>
       </c>
       <c r="L19">
-        <v>0.9981408731194219</v>
+        <v>1.050030550715822</v>
       </c>
       <c r="M19">
-        <v>1.025021603662205</v>
+        <v>1.068795298591552</v>
       </c>
       <c r="N19">
-        <v>1.006349282273167</v>
+        <v>1.05738411811469</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.973245415522486</v>
+        <v>1.049286551304526</v>
       </c>
       <c r="D20">
-        <v>1.003422525727645</v>
+        <v>1.055705436511825</v>
       </c>
       <c r="E20">
-        <v>0.980762849617133</v>
+        <v>1.046218380231084</v>
       </c>
       <c r="F20">
-        <v>1.008229997852429</v>
+        <v>1.065055868609881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040448923636637</v>
+        <v>1.045210936514028</v>
       </c>
       <c r="J20">
-        <v>1.001848116602603</v>
+        <v>1.05539451432172</v>
       </c>
       <c r="K20">
-        <v>1.017405459933528</v>
+        <v>1.05901154825833</v>
       </c>
       <c r="L20">
-        <v>0.9951526109896469</v>
+        <v>1.049556606456098</v>
       </c>
       <c r="M20">
-        <v>1.022129660065955</v>
+        <v>1.068330942550375</v>
       </c>
       <c r="N20">
-        <v>1.003270855841764</v>
+        <v>1.056893295587499</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9601580088455264</v>
+        <v>1.047290267254551</v>
       </c>
       <c r="D21">
-        <v>0.9931123153332229</v>
+        <v>1.054119937328798</v>
       </c>
       <c r="E21">
-        <v>0.9694278493305643</v>
+        <v>1.044461135155733</v>
       </c>
       <c r="F21">
-        <v>0.997300358006194</v>
+        <v>1.063335486773099</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03546866906236</v>
+        <v>1.044604040700156</v>
       </c>
       <c r="J21">
-        <v>0.9914214047326378</v>
+        <v>1.053795800002934</v>
       </c>
       <c r="K21">
-        <v>1.008225362586754</v>
+        <v>1.057633920262432</v>
       </c>
       <c r="L21">
-        <v>0.9850125293888544</v>
+        <v>1.048010066302999</v>
       </c>
       <c r="M21">
-        <v>1.012333057069664</v>
+        <v>1.066816777817782</v>
       </c>
       <c r="N21">
-        <v>0.9928293368449826</v>
+        <v>1.055292310911006</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9514658966718461</v>
+        <v>1.046031207122853</v>
       </c>
       <c r="D22">
-        <v>0.9862797319158862</v>
+        <v>1.053119742138026</v>
       </c>
       <c r="E22">
-        <v>0.9619069681473714</v>
+        <v>1.043352318412592</v>
       </c>
       <c r="F22">
-        <v>0.9900647001835389</v>
+        <v>1.062250806278482</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032148327459867</v>
+        <v>1.044219240318257</v>
       </c>
       <c r="J22">
-        <v>0.9844946498516789</v>
+        <v>1.052786508876925</v>
       </c>
       <c r="K22">
-        <v>1.002127979525254</v>
+        <v>1.056763888285038</v>
       </c>
       <c r="L22">
-        <v>0.978272806663244</v>
+        <v>1.047033244246559</v>
       </c>
       <c r="M22">
-        <v>1.005835580528526</v>
+        <v>1.065861245403453</v>
       </c>
       <c r="N22">
-        <v>0.9858927451775829</v>
+        <v>1.05428158647583</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9561213084871277</v>
+        <v>1.046699036438805</v>
       </c>
       <c r="D23">
-        <v>0.989937638578224</v>
+        <v>1.053650284697944</v>
       </c>
       <c r="E23">
-        <v>0.9659342889326966</v>
+        <v>1.043940504800553</v>
       </c>
       <c r="F23">
-        <v>0.9939376819318158</v>
+        <v>1.062826105862064</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033927774826663</v>
+        <v>1.044423537756767</v>
       </c>
       <c r="J23">
-        <v>0.9882046373525225</v>
+        <v>1.05332194853861</v>
       </c>
       <c r="K23">
-        <v>1.005393601158972</v>
+        <v>1.05722547917354</v>
       </c>
       <c r="L23">
-        <v>0.981882932480709</v>
+        <v>1.047551503237895</v>
       </c>
       <c r="M23">
-        <v>1.009314577853298</v>
+        <v>1.066368129068753</v>
       </c>
       <c r="N23">
-        <v>0.9896080012862192</v>
+        <v>1.054817786523251</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C24">
-        <v>0.973457713518693</v>
+        <v>1.049319954294705</v>
       </c>
       <c r="D24">
-        <v>1.003589984315676</v>
+        <v>1.055731962210596</v>
       </c>
       <c r="E24">
-        <v>0.9809468187023286</v>
+        <v>1.046247774678671</v>
       </c>
       <c r="F24">
-        <v>1.008407632650173</v>
+        <v>1.065084661110162</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040529491346475</v>
+        <v>1.045221057084446</v>
       </c>
       <c r="J24">
-        <v>1.002017209468826</v>
+        <v>1.055421248358523</v>
       </c>
       <c r="K24">
-        <v>1.017554347755159</v>
+        <v>1.059034579861749</v>
       </c>
       <c r="L24">
-        <v>0.9953170004834109</v>
+        <v>1.049582460120746</v>
       </c>
       <c r="M24">
-        <v>1.022288692226615</v>
+        <v>1.068356269100392</v>
       </c>
       <c r="N24">
-        <v>1.003440188839252</v>
+        <v>1.056920067589702</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9918663858845203</v>
+        <v>1.052344965759531</v>
       </c>
       <c r="D25">
-        <v>1.01813379672751</v>
+        <v>1.058133597266422</v>
       </c>
       <c r="E25">
-        <v>0.9969087727296684</v>
+        <v>1.048908518796414</v>
       </c>
       <c r="F25">
-        <v>1.023850233783102</v>
+        <v>1.067692966741841</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047482909439684</v>
+        <v>1.046132724821781</v>
       </c>
       <c r="J25">
-        <v>1.01667061366693</v>
+        <v>1.057839962927484</v>
       </c>
       <c r="K25">
-        <v>1.030456982885176</v>
+        <v>1.061117553813296</v>
       </c>
       <c r="L25">
-        <v>1.009555266309533</v>
+        <v>1.051920413678576</v>
       </c>
       <c r="M25">
-        <v>1.036089253170544</v>
+        <v>1.070648527046284</v>
       </c>
       <c r="N25">
-        <v>1.018114402552086</v>
+        <v>1.059342217010781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_78/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_78/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054745150301199</v>
+        <v>1.005438898910362</v>
       </c>
       <c r="D2">
-        <v>1.060038307084648</v>
+        <v>1.028882966353359</v>
       </c>
       <c r="E2">
-        <v>1.051017841050022</v>
+        <v>1.008686729446791</v>
       </c>
       <c r="F2">
-        <v>1.069763675009067</v>
+        <v>1.03528417717333</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046848962490686</v>
+        <v>1.05255920528327</v>
       </c>
       <c r="J2">
-        <v>1.059755638480245</v>
+        <v>1.027458141540676</v>
       </c>
       <c r="K2">
-        <v>1.062766175295604</v>
+        <v>1.039954062581907</v>
       </c>
       <c r="L2">
-        <v>1.053770508784097</v>
+        <v>1.02002635648925</v>
       </c>
       <c r="M2">
-        <v>1.07246531259788</v>
+        <v>1.046272895425513</v>
       </c>
       <c r="N2">
-        <v>1.061260613042558</v>
+        <v>1.02891724995276</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056480951296423</v>
+        <v>1.014753562309123</v>
       </c>
       <c r="D3">
-        <v>1.061415257188752</v>
+        <v>1.036270675609023</v>
       </c>
       <c r="E3">
-        <v>1.05254222078431</v>
+        <v>1.016772440793764</v>
       </c>
       <c r="F3">
-        <v>1.071261835915073</v>
+        <v>1.043153732259377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047362801924152</v>
+        <v>1.056011784614372</v>
       </c>
       <c r="J3">
-        <v>1.061139039670446</v>
+        <v>1.034849953881053</v>
       </c>
       <c r="K3">
-        <v>1.063956051346688</v>
+        <v>1.046459582779652</v>
       </c>
       <c r="L3">
-        <v>1.055105619597533</v>
+        <v>1.027195120364316</v>
       </c>
       <c r="M3">
-        <v>1.073778017217178</v>
+        <v>1.053262694240835</v>
       </c>
       <c r="N3">
-        <v>1.062645978821127</v>
+        <v>1.036319559514513</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057601026073847</v>
+        <v>1.020558947680772</v>
       </c>
       <c r="D4">
-        <v>1.062303520508216</v>
+        <v>1.04087879434529</v>
       </c>
       <c r="E4">
-        <v>1.05352537210779</v>
+        <v>1.021812341353227</v>
       </c>
       <c r="F4">
-        <v>1.072228848981741</v>
+        <v>1.04806742976002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047692452129098</v>
+        <v>1.058148562099972</v>
       </c>
       <c r="J4">
-        <v>1.062030787836578</v>
+        <v>1.039450983360578</v>
       </c>
       <c r="K4">
-        <v>1.064722736993398</v>
+        <v>1.050507665676843</v>
       </c>
       <c r="L4">
-        <v>1.055965810146917</v>
+        <v>1.031654449702842</v>
       </c>
       <c r="M4">
-        <v>1.074624519816927</v>
+        <v>1.057618373563431</v>
       </c>
       <c r="N4">
-        <v>1.06353899337194</v>
+        <v>1.040927122983644</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058071177802028</v>
+        <v>1.022950101186795</v>
       </c>
       <c r="D5">
-        <v>1.062676307395924</v>
+        <v>1.042777539888823</v>
       </c>
       <c r="E5">
-        <v>1.053937930607902</v>
+        <v>1.023888214801467</v>
       </c>
       <c r="F5">
-        <v>1.072634818871317</v>
+        <v>1.050093273495744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047830362737364</v>
+        <v>1.059024971830148</v>
       </c>
       <c r="J5">
-        <v>1.06240487612436</v>
+        <v>1.041344575860993</v>
       </c>
       <c r="K5">
-        <v>1.065044285501689</v>
+        <v>1.052173338168975</v>
       </c>
       <c r="L5">
-        <v>1.056326557430874</v>
+        <v>1.033489038502161</v>
       </c>
       <c r="M5">
-        <v>1.07497970477937</v>
+        <v>1.059412088099199</v>
       </c>
       <c r="N5">
-        <v>1.063913612907999</v>
+        <v>1.042823404602608</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058150076121273</v>
+        <v>1.023348787275221</v>
       </c>
       <c r="D6">
-        <v>1.062738862802626</v>
+        <v>1.043094163361568</v>
       </c>
       <c r="E6">
-        <v>1.054007156919924</v>
+        <v>1.024234331060377</v>
       </c>
       <c r="F6">
-        <v>1.072702950354473</v>
+        <v>1.050431160392435</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047853479140419</v>
+        <v>1.059170878988801</v>
       </c>
       <c r="J6">
-        <v>1.062467640487738</v>
+        <v>1.041660210999243</v>
       </c>
       <c r="K6">
-        <v>1.065098230285188</v>
+        <v>1.05245096042357</v>
       </c>
       <c r="L6">
-        <v>1.056387077435534</v>
+        <v>1.033794798245113</v>
       </c>
       <c r="M6">
-        <v>1.075039302054882</v>
+        <v>1.05971113757779</v>
       </c>
       <c r="N6">
-        <v>1.063976466403972</v>
+        <v>1.043139487978958</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057607311102417</v>
+        <v>1.020591088055735</v>
       </c>
       <c r="D7">
-        <v>1.062308504200508</v>
+        <v>1.040904313398817</v>
       </c>
       <c r="E7">
-        <v>1.053530887695718</v>
+        <v>1.021840244009121</v>
       </c>
       <c r="F7">
-        <v>1.072234275765326</v>
+        <v>1.048094652328926</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047694297539984</v>
+        <v>1.058160357013132</v>
       </c>
       <c r="J7">
-        <v>1.062035789559289</v>
+        <v>1.039476441899196</v>
       </c>
       <c r="K7">
-        <v>1.064727036536394</v>
+        <v>1.05053006137364</v>
       </c>
       <c r="L7">
-        <v>1.055970633897765</v>
+        <v>1.031679117679469</v>
       </c>
       <c r="M7">
-        <v>1.074629268491525</v>
+        <v>1.057642485024674</v>
       </c>
       <c r="N7">
-        <v>1.063544002197671</v>
+        <v>1.040952617676307</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055332424573299</v>
+        <v>1.008635107007536</v>
       </c>
       <c r="D8">
-        <v>1.060504222774404</v>
+        <v>1.031417072075974</v>
       </c>
       <c r="E8">
-        <v>1.051533688143244</v>
+        <v>1.011461075542088</v>
       </c>
       <c r="F8">
-        <v>1.070270488812621</v>
+        <v>1.037982485773153</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047023207730294</v>
+        <v>1.053747050815287</v>
       </c>
       <c r="J8">
-        <v>1.060223877956374</v>
+        <v>1.029995754380546</v>
       </c>
       <c r="K8">
-        <v>1.063168977411418</v>
+        <v>1.042187652888364</v>
       </c>
       <c r="L8">
-        <v>1.054222492688323</v>
+        <v>1.022488005408558</v>
       </c>
       <c r="M8">
-        <v>1.072909555283214</v>
+        <v>1.048671412207109</v>
       </c>
       <c r="N8">
-        <v>1.061729517472451</v>
+        <v>1.03145846649393</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051299307037036</v>
+        <v>0.9856783677827125</v>
       </c>
       <c r="D9">
-        <v>1.057303551201375</v>
+        <v>1.013240026520147</v>
       </c>
       <c r="E9">
-        <v>1.047989060631399</v>
+        <v>0.9915412579988496</v>
       </c>
       <c r="F9">
-        <v>1.066791166769652</v>
+        <v>1.018650639641191</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045818691344029</v>
+        <v>1.045153323177863</v>
       </c>
       <c r="J9">
-        <v>1.057004416891532</v>
+        <v>1.011747197600043</v>
       </c>
       <c r="K9">
-        <v>1.060398165033794</v>
+        <v>1.026121884686879</v>
       </c>
       <c r="L9">
-        <v>1.051113018234491</v>
+        <v>1.004773079584454</v>
       </c>
       <c r="M9">
-        <v>1.069856466467243</v>
+        <v>1.031448200683787</v>
       </c>
       <c r="N9">
-        <v>1.058505484403619</v>
+        <v>1.013183994669661</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04859312222012</v>
+        <v>0.968789996737185</v>
       </c>
       <c r="D10">
-        <v>1.055154747669073</v>
+        <v>0.9999096505623132</v>
       </c>
       <c r="E10">
-        <v>1.04560810035456</v>
+        <v>0.9769026449420412</v>
       </c>
       <c r="F10">
-        <v>1.064458196013568</v>
+        <v>1.004504514329103</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04500058079728</v>
+        <v>1.03875636736177</v>
       </c>
       <c r="J10">
-        <v>1.054839404854404</v>
+        <v>0.9982990451762478</v>
       </c>
       <c r="K10">
-        <v>1.058533276157747</v>
+        <v>1.014280536487655</v>
       </c>
       <c r="L10">
-        <v>1.04901971793479</v>
+        <v>0.9917018392414901</v>
       </c>
       <c r="M10">
-        <v>1.067805105907259</v>
+        <v>1.018792911894374</v>
       </c>
       <c r="N10">
-        <v>1.056337397801068</v>
+        <v>0.9997167443268991</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047416957839678</v>
+        <v>0.961013012784299</v>
       </c>
       <c r="D11">
-        <v>1.054220571063186</v>
+        <v>0.9937850748583046</v>
       </c>
       <c r="E11">
-        <v>1.044572685868584</v>
+        <v>0.9701679806279585</v>
       </c>
       <c r="F11">
-        <v>1.063444646496548</v>
+        <v>0.9980131191570168</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044642674707984</v>
+        <v>1.035794778092283</v>
       </c>
       <c r="J11">
-        <v>1.053897316680274</v>
+        <v>0.9921027108415409</v>
       </c>
       <c r="K11">
-        <v>1.057721416669485</v>
+        <v>1.008825155068381</v>
       </c>
       <c r="L11">
-        <v>1.048108297299688</v>
+        <v>0.9856753004769294</v>
       </c>
       <c r="M11">
-        <v>1.06691290355878</v>
+        <v>1.012972602664246</v>
       </c>
       <c r="N11">
-        <v>1.055393971753672</v>
+        <v>0.9935116104867073</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04697940264444</v>
+        <v>0.9580452234502409</v>
       </c>
       <c r="D12">
-        <v>1.053873002100352</v>
+        <v>0.9914503763053415</v>
       </c>
       <c r="E12">
-        <v>1.044187402620274</v>
+        <v>0.9675991741417251</v>
       </c>
       <c r="F12">
-        <v>1.063067650387324</v>
+        <v>0.9955398450929265</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044509176312132</v>
+        <v>1.03466242507949</v>
       </c>
       <c r="J12">
-        <v>1.053546673121241</v>
+        <v>0.9897377930229267</v>
       </c>
       <c r="K12">
-        <v>1.05741918942305</v>
+        <v>1.006743227336577</v>
       </c>
       <c r="L12">
-        <v>1.047768987159557</v>
+        <v>0.9833746110819832</v>
       </c>
       <c r="M12">
-        <v>1.066580893171269</v>
+        <v>1.010752996410614</v>
       </c>
       <c r="N12">
-        <v>1.055042830240565</v>
+        <v>0.9911433342135311</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047073290589653</v>
+        <v>0.9586855722787814</v>
       </c>
       <c r="D13">
-        <v>1.053947583027389</v>
+        <v>0.9919540049226042</v>
       </c>
       <c r="E13">
-        <v>1.044270078416862</v>
+        <v>0.9681533759957924</v>
       </c>
       <c r="F13">
-        <v>1.063148541034485</v>
+        <v>0.9960733087635085</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044537837441937</v>
+        <v>1.034906843090406</v>
       </c>
       <c r="J13">
-        <v>1.053621919736206</v>
+        <v>0.9902480733077306</v>
       </c>
       <c r="K13">
-        <v>1.057484048561971</v>
+        <v>1.007192435986324</v>
       </c>
       <c r="L13">
-        <v>1.047841805339026</v>
+        <v>0.9838710586123756</v>
       </c>
       <c r="M13">
-        <v>1.066652138196813</v>
+        <v>1.011231838403794</v>
       </c>
       <c r="N13">
-        <v>1.055118183714355</v>
+        <v>0.9916543391548691</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047380803279252</v>
+        <v>0.9607693678885708</v>
       </c>
       <c r="D14">
-        <v>1.054191852697261</v>
+        <v>0.9935933510442494</v>
       </c>
       <c r="E14">
-        <v>1.04454085228999</v>
+        <v>0.9699570643674097</v>
       </c>
       <c r="F14">
-        <v>1.063413494544569</v>
+        <v>0.9978099898215015</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044631651071553</v>
+        <v>1.035701858661629</v>
       </c>
       <c r="J14">
-        <v>1.053868346949206</v>
+        <v>0.991908564738549</v>
       </c>
       <c r="K14">
-        <v>1.057696448142295</v>
+        <v>1.008654236221531</v>
       </c>
       <c r="L14">
-        <v>1.048080265574027</v>
+        <v>0.9854864387728487</v>
       </c>
       <c r="M14">
-        <v>1.066885471930881</v>
+        <v>1.012790348295884</v>
       </c>
       <c r="N14">
-        <v>1.055364960882263</v>
+        <v>0.9933171886739802</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047570181928714</v>
+        <v>0.9620424754946519</v>
       </c>
       <c r="D15">
-        <v>1.054342278805641</v>
+        <v>0.9945952619334681</v>
       </c>
       <c r="E15">
-        <v>1.044707593843001</v>
+        <v>0.9710592075895274</v>
       </c>
       <c r="F15">
-        <v>1.063576671986793</v>
+        <v>0.9988715550161608</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044689378857138</v>
+        <v>1.036187299908329</v>
       </c>
       <c r="J15">
-        <v>1.054020084333661</v>
+        <v>0.9929230166020802</v>
       </c>
       <c r="K15">
-        <v>1.057827225829482</v>
+        <v>1.009547329623933</v>
       </c>
       <c r="L15">
-        <v>1.048227086567202</v>
+        <v>0.9864732552973231</v>
       </c>
       <c r="M15">
-        <v>1.067029155749373</v>
+        <v>1.013742737427894</v>
       </c>
       <c r="N15">
-        <v>1.055516913751208</v>
+        <v>0.9943330811755168</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048671086715571</v>
+        <v>0.9692955928304847</v>
       </c>
       <c r="D16">
-        <v>1.055216666129891</v>
+        <v>1.000308140483189</v>
       </c>
       <c r="E16">
-        <v>1.045676722374558</v>
+        <v>0.9773406293039985</v>
       </c>
       <c r="F16">
-        <v>1.06452539000239</v>
+        <v>1.004927039618985</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045024256210511</v>
+        <v>1.038948596758839</v>
       </c>
       <c r="J16">
-        <v>1.054901829417153</v>
+        <v>0.9987018241183365</v>
       </c>
       <c r="K16">
-        <v>1.058587063844789</v>
+        <v>1.014635172193587</v>
       </c>
       <c r="L16">
-        <v>1.049080099087244</v>
+        <v>0.9920935018741883</v>
       </c>
       <c r="M16">
-        <v>1.067864234090614</v>
+        <v>1.019171483030894</v>
       </c>
       <c r="N16">
-        <v>1.056399911013857</v>
+        <v>1.000120095261285</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.049360472247215</v>
+        <v>0.9737149501381389</v>
       </c>
       <c r="D17">
-        <v>1.055764137809398</v>
+        <v>1.003792898724846</v>
       </c>
       <c r="E17">
-        <v>1.046283429858841</v>
+        <v>0.9811697336957167</v>
       </c>
       <c r="F17">
-        <v>1.065119586788771</v>
+        <v>1.008622882935349</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045233331833837</v>
+        <v>1.040627103131974</v>
       </c>
       <c r="J17">
-        <v>1.05545367610174</v>
+        <v>1.002222093014046</v>
       </c>
       <c r="K17">
-        <v>1.059062516399995</v>
+        <v>1.017734749918858</v>
       </c>
       <c r="L17">
-        <v>1.049613819640212</v>
+        <v>0.995516182647742</v>
       </c>
       <c r="M17">
-        <v>1.068386989879309</v>
+        <v>1.022481392316545</v>
       </c>
       <c r="N17">
-        <v>1.056952541384033</v>
+        <v>1.003645363342606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0497621589662</v>
+        <v>0.9762486122576097</v>
       </c>
       <c r="D18">
-        <v>1.05608310977367</v>
+        <v>1.005792015267003</v>
       </c>
       <c r="E18">
-        <v>1.046636884524872</v>
+        <v>0.9833655657969813</v>
       </c>
       <c r="F18">
-        <v>1.065465848713343</v>
+        <v>1.010743831398228</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045354929523637</v>
+        <v>1.041587921644336</v>
       </c>
       <c r="J18">
-        <v>1.05577511386888</v>
+        <v>1.004239953770345</v>
       </c>
       <c r="K18">
-        <v>1.05933942097028</v>
+        <v>1.019511514371343</v>
       </c>
       <c r="L18">
-        <v>1.049924647690451</v>
+        <v>0.997477744709609</v>
       </c>
       <c r="M18">
-        <v>1.06869152430657</v>
+        <v>1.024379653986328</v>
       </c>
       <c r="N18">
-        <v>1.057274435629672</v>
+        <v>1.005666089692632</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04989905305727</v>
+        <v>0.9771053050643047</v>
       </c>
       <c r="D19">
-        <v>1.056191810489486</v>
+        <v>1.006468169551247</v>
       </c>
       <c r="E19">
-        <v>1.046757331415234</v>
+        <v>0.9841081192143913</v>
       </c>
       <c r="F19">
-        <v>1.065583860721234</v>
+        <v>1.011461316074121</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045396331582719</v>
+        <v>1.041912540232744</v>
       </c>
       <c r="J19">
-        <v>1.055884640813075</v>
+        <v>1.004922177514911</v>
       </c>
       <c r="K19">
-        <v>1.059433767614668</v>
+        <v>1.020112230761535</v>
       </c>
       <c r="L19">
-        <v>1.050030550715822</v>
+        <v>0.9981408731194227</v>
       </c>
       <c r="M19">
-        <v>1.068795298591552</v>
+        <v>1.025021603662206</v>
       </c>
       <c r="N19">
-        <v>1.05738411811469</v>
+        <v>1.006349282273167</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.049286551304526</v>
+        <v>0.9732454155224853</v>
       </c>
       <c r="D20">
-        <v>1.055705436511825</v>
+        <v>1.003422525727645</v>
       </c>
       <c r="E20">
-        <v>1.046218380231084</v>
+        <v>0.9807628496171327</v>
       </c>
       <c r="F20">
-        <v>1.065055868609881</v>
+        <v>1.008229997852429</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045210936514028</v>
+        <v>1.040448923636637</v>
       </c>
       <c r="J20">
-        <v>1.05539451432172</v>
+        <v>1.001848116602602</v>
       </c>
       <c r="K20">
-        <v>1.05901154825833</v>
+        <v>1.017405459933528</v>
       </c>
       <c r="L20">
-        <v>1.049556606456098</v>
+        <v>0.9951526109896462</v>
       </c>
       <c r="M20">
-        <v>1.068330942550375</v>
+        <v>1.022129660065955</v>
       </c>
       <c r="N20">
-        <v>1.056893295587499</v>
+        <v>1.003270855841763</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047290267254551</v>
+        <v>0.9601580088455234</v>
       </c>
       <c r="D21">
-        <v>1.054119937328798</v>
+        <v>0.9931123153332205</v>
       </c>
       <c r="E21">
-        <v>1.044461135155733</v>
+        <v>0.969427849330561</v>
       </c>
       <c r="F21">
-        <v>1.063335486773099</v>
+        <v>0.9973003580061919</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044604040700156</v>
+        <v>1.035468669062359</v>
       </c>
       <c r="J21">
-        <v>1.053795800002934</v>
+        <v>0.9914214047326351</v>
       </c>
       <c r="K21">
-        <v>1.057633920262432</v>
+        <v>1.008225362586752</v>
       </c>
       <c r="L21">
-        <v>1.048010066302999</v>
+        <v>0.9850125293888514</v>
       </c>
       <c r="M21">
-        <v>1.066816777817782</v>
+        <v>1.012333057069662</v>
       </c>
       <c r="N21">
-        <v>1.055292310911006</v>
+        <v>0.99282933684498</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046031207122853</v>
+        <v>0.9514658966718466</v>
       </c>
       <c r="D22">
-        <v>1.053119742138026</v>
+        <v>0.9862797319158864</v>
       </c>
       <c r="E22">
-        <v>1.043352318412592</v>
+        <v>0.9619069681473719</v>
       </c>
       <c r="F22">
-        <v>1.062250806278482</v>
+        <v>0.9900647001835389</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044219240318257</v>
+        <v>1.032148327459867</v>
       </c>
       <c r="J22">
-        <v>1.052786508876925</v>
+        <v>0.9844946498516791</v>
       </c>
       <c r="K22">
-        <v>1.056763888285038</v>
+        <v>1.002127979525254</v>
       </c>
       <c r="L22">
-        <v>1.047033244246559</v>
+        <v>0.9782728066632445</v>
       </c>
       <c r="M22">
-        <v>1.065861245403453</v>
+        <v>1.005835580528526</v>
       </c>
       <c r="N22">
-        <v>1.05428158647583</v>
+        <v>0.9858927451775834</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046699036438805</v>
+        <v>0.9561213084871255</v>
       </c>
       <c r="D23">
-        <v>1.053650284697944</v>
+        <v>0.9899376385782225</v>
       </c>
       <c r="E23">
-        <v>1.043940504800553</v>
+        <v>0.9659342889326945</v>
       </c>
       <c r="F23">
-        <v>1.062826105862064</v>
+        <v>0.9939376819318141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044423537756767</v>
+        <v>1.033927774826662</v>
       </c>
       <c r="J23">
-        <v>1.05332194853861</v>
+        <v>0.9882046373525205</v>
       </c>
       <c r="K23">
-        <v>1.05722547917354</v>
+        <v>1.005393601158971</v>
       </c>
       <c r="L23">
-        <v>1.047551503237895</v>
+        <v>0.981882932480707</v>
       </c>
       <c r="M23">
-        <v>1.066368129068753</v>
+        <v>1.009314577853297</v>
       </c>
       <c r="N23">
-        <v>1.054817786523251</v>
+        <v>0.9896080012862173</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049319954294705</v>
+        <v>0.9734577135186923</v>
       </c>
       <c r="D24">
-        <v>1.055731962210596</v>
+        <v>1.003589984315675</v>
       </c>
       <c r="E24">
-        <v>1.046247774678671</v>
+        <v>0.9809468187023278</v>
       </c>
       <c r="F24">
-        <v>1.065084661110162</v>
+        <v>1.008407632650172</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045221057084446</v>
+        <v>1.040529491346475</v>
       </c>
       <c r="J24">
-        <v>1.055421248358523</v>
+        <v>1.002017209468825</v>
       </c>
       <c r="K24">
-        <v>1.059034579861749</v>
+        <v>1.017554347755158</v>
       </c>
       <c r="L24">
-        <v>1.049582460120746</v>
+        <v>0.9953170004834099</v>
       </c>
       <c r="M24">
-        <v>1.068356269100392</v>
+        <v>1.022288692226614</v>
       </c>
       <c r="N24">
-        <v>1.056920067589702</v>
+        <v>1.003440188839251</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052344965759531</v>
+        <v>0.9918663858845215</v>
       </c>
       <c r="D25">
-        <v>1.058133597266422</v>
+        <v>1.018133796727512</v>
       </c>
       <c r="E25">
-        <v>1.048908518796414</v>
+        <v>0.9969087727296696</v>
       </c>
       <c r="F25">
-        <v>1.067692966741841</v>
+        <v>1.023850233783103</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046132724821781</v>
+        <v>1.047482909439685</v>
       </c>
       <c r="J25">
-        <v>1.057839962927484</v>
+        <v>1.016670613666931</v>
       </c>
       <c r="K25">
-        <v>1.061117553813296</v>
+        <v>1.030456982885178</v>
       </c>
       <c r="L25">
-        <v>1.051920413678576</v>
+        <v>1.009555266309534</v>
       </c>
       <c r="M25">
-        <v>1.070648527046284</v>
+        <v>1.036089253170546</v>
       </c>
       <c r="N25">
-        <v>1.059342217010781</v>
+        <v>1.018114402552088</v>
       </c>
     </row>
   </sheetData>
